--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value399.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value399.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.239927639597789</v>
+        <v>2.875026226043701</v>
       </c>
       <c r="B1">
-        <v>1.317198436460525</v>
+        <v>2.759056091308594</v>
       </c>
       <c r="C1">
-        <v>1.48561593179034</v>
+        <v>2.185009717941284</v>
       </c>
       <c r="D1">
-        <v>2.3207556799495</v>
+        <v>2.045663356781006</v>
       </c>
       <c r="E1">
-        <v>2.934474336880779</v>
+        <v>1.769544720649719</v>
       </c>
     </row>
   </sheetData>
